--- a/treatment.xlsx
+++ b/treatment.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,22 +466,30 @@
           <t>herbs</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>online counseling</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>43618</v>
       </c>
       <c r="B2" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="F2" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -489,16 +497,19 @@
         <v>43625</v>
       </c>
       <c r="B3" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C3" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D3" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E3" t="n">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="F3" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
@@ -506,16 +517,19 @@
         <v>43632</v>
       </c>
       <c r="B4" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" t="n">
         <v>79</v>
       </c>
       <c r="D4" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E4" t="n">
         <v>64</v>
+      </c>
+      <c r="F4" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -523,16 +537,19 @@
         <v>43639</v>
       </c>
       <c r="B5" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C5" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D5" t="n">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="E5" t="n">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="F5" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="6">
@@ -543,13 +560,16 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D6" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E6" t="n">
         <v>60</v>
+      </c>
+      <c r="F6" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +577,19 @@
         <v>43653</v>
       </c>
       <c r="B7" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C7" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" t="n">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="F7" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -574,16 +597,19 @@
         <v>43660</v>
       </c>
       <c r="B8" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C8" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D8" t="n">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="F8" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="9">
@@ -591,16 +617,19 @@
         <v>43667</v>
       </c>
       <c r="B9" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D9" t="n">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E9" t="n">
         <v>58</v>
+      </c>
+      <c r="F9" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="10">
@@ -614,9 +643,12 @@
         <v>78</v>
       </c>
       <c r="D10" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E10" t="n">
+        <v>61</v>
+      </c>
+      <c r="F10" t="n">
         <v>55</v>
       </c>
     </row>
@@ -625,16 +657,19 @@
         <v>43681</v>
       </c>
       <c r="B11" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E11" t="n">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="F11" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -642,16 +677,19 @@
         <v>43688</v>
       </c>
       <c r="B12" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D12" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E12" t="n">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="F12" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="13">
@@ -659,16 +697,19 @@
         <v>43695</v>
       </c>
       <c r="B13" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C13" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D13" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E13" t="n">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="F13" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="14">
@@ -676,16 +717,19 @@
         <v>43702</v>
       </c>
       <c r="B14" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C14" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E14" t="n">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="F14" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -693,16 +737,19 @@
         <v>43709</v>
       </c>
       <c r="B15" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C15" t="n">
         <v>77</v>
       </c>
       <c r="D15" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E15" t="n">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F15" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="16">
@@ -710,16 +757,19 @@
         <v>43716</v>
       </c>
       <c r="B16" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D16" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E16" t="n">
         <v>57</v>
+      </c>
+      <c r="F16" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="17">
@@ -730,12 +780,15 @@
         <v>88</v>
       </c>
       <c r="C17" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D17" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E17" t="n">
+        <v>52</v>
+      </c>
+      <c r="F17" t="n">
         <v>55</v>
       </c>
     </row>
@@ -744,16 +797,19 @@
         <v>43730</v>
       </c>
       <c r="B18" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C18" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D18" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E18" t="n">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="F18" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="19">
@@ -761,16 +817,19 @@
         <v>43737</v>
       </c>
       <c r="B19" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C19" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D19" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E19" t="n">
         <v>55</v>
+      </c>
+      <c r="F19" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -778,16 +837,19 @@
         <v>43744</v>
       </c>
       <c r="B20" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D20" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E20" t="n">
         <v>58</v>
+      </c>
+      <c r="F20" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="21">
@@ -795,16 +857,19 @@
         <v>43751</v>
       </c>
       <c r="B21" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D21" t="n">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E21" t="n">
         <v>54</v>
+      </c>
+      <c r="F21" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="22">
@@ -812,16 +877,19 @@
         <v>43758</v>
       </c>
       <c r="B22" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C22" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D22" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" t="n">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="F22" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="23">
@@ -829,16 +897,19 @@
         <v>43765</v>
       </c>
       <c r="B23" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C23" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D23" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E23" t="n">
         <v>52</v>
+      </c>
+      <c r="F23" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="24">
@@ -846,16 +917,19 @@
         <v>43772</v>
       </c>
       <c r="B24" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D24" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E24" t="n">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="F24" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="25">
@@ -863,16 +937,19 @@
         <v>43779</v>
       </c>
       <c r="B25" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C25" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D25" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E25" t="n">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="F25" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="26">
@@ -883,13 +960,16 @@
         <v>86</v>
       </c>
       <c r="C26" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E26" t="n">
         <v>55</v>
+      </c>
+      <c r="F26" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="27">
@@ -897,16 +977,19 @@
         <v>43793</v>
       </c>
       <c r="B27" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D27" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E27" t="n">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="F27" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="28">
@@ -914,16 +997,19 @@
         <v>43800</v>
       </c>
       <c r="B28" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D28" t="n">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E28" t="n">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="F28" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="29">
@@ -931,16 +1017,19 @@
         <v>43807</v>
       </c>
       <c r="B29" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D29" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E29" t="n">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="F29" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="30">
@@ -948,16 +1037,19 @@
         <v>43814</v>
       </c>
       <c r="B30" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C30" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D30" t="n">
         <v>47</v>
       </c>
       <c r="E30" t="n">
         <v>51</v>
+      </c>
+      <c r="F30" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="31">
@@ -968,13 +1060,16 @@
         <v>77</v>
       </c>
       <c r="C31" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E31" t="n">
         <v>57</v>
+      </c>
+      <c r="F31" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="32">
@@ -982,16 +1077,19 @@
         <v>43828</v>
       </c>
       <c r="B32" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D32" t="n">
         <v>63</v>
       </c>
       <c r="E32" t="n">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="F32" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="33">
@@ -999,16 +1097,19 @@
         <v>43835</v>
       </c>
       <c r="B33" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C33" t="n">
         <v>91</v>
       </c>
       <c r="D33" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E33" t="n">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="F33" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="34">
@@ -1016,16 +1117,19 @@
         <v>43842</v>
       </c>
       <c r="B34" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C34" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D34" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E34" t="n">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="F34" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="35">
@@ -1033,16 +1137,19 @@
         <v>43849</v>
       </c>
       <c r="B35" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C35" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D35" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E35" t="n">
         <v>60</v>
+      </c>
+      <c r="F35" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="36">
@@ -1050,16 +1157,19 @@
         <v>43856</v>
       </c>
       <c r="B36" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C36" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D36" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E36" t="n">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="F36" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="37">
@@ -1067,16 +1177,19 @@
         <v>43863</v>
       </c>
       <c r="B37" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C37" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D37" t="n">
+        <v>58</v>
+      </c>
+      <c r="E37" t="n">
         <v>56</v>
       </c>
-      <c r="E37" t="n">
-        <v>59</v>
+      <c r="F37" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="38">
@@ -1084,16 +1197,19 @@
         <v>43870</v>
       </c>
       <c r="B38" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C38" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D38" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E38" t="n">
-        <v>57</v>
+        <v>63</v>
+      </c>
+      <c r="F38" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="39">
@@ -1101,16 +1217,19 @@
         <v>43877</v>
       </c>
       <c r="B39" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C39" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D39" t="n">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E39" t="n">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="F39" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="40">
@@ -1118,16 +1237,19 @@
         <v>43884</v>
       </c>
       <c r="B40" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C40" t="n">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D40" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E40" t="n">
-        <v>61</v>
+        <v>66</v>
+      </c>
+      <c r="F40" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="41">
@@ -1135,16 +1257,19 @@
         <v>43891</v>
       </c>
       <c r="B41" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C41" t="n">
         <v>83</v>
       </c>
       <c r="D41" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E41" t="n">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="F41" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="42">
@@ -1152,16 +1277,19 @@
         <v>43898</v>
       </c>
       <c r="B42" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C42" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D42" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E42" t="n">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="F42" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="43">
@@ -1169,16 +1297,19 @@
         <v>43905</v>
       </c>
       <c r="B43" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C43" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D43" t="n">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="E43" t="n">
         <v>75</v>
+      </c>
+      <c r="F43" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="44">
@@ -1186,16 +1317,19 @@
         <v>43912</v>
       </c>
       <c r="B44" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C44" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D44" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E44" t="n">
-        <v>78</v>
+        <v>87</v>
+      </c>
+      <c r="F44" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="45">
@@ -1203,16 +1337,19 @@
         <v>43919</v>
       </c>
       <c r="B45" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C45" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D45" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E45" t="n">
-        <v>84</v>
+        <v>79</v>
+      </c>
+      <c r="F45" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="46">
@@ -1220,16 +1357,19 @@
         <v>43926</v>
       </c>
       <c r="B46" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" t="n">
         <v>100</v>
       </c>
       <c r="D46" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E46" t="n">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="F46" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="47">
@@ -1240,13 +1380,16 @@
         <v>69</v>
       </c>
       <c r="C47" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D47" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E47" t="n">
         <v>90</v>
+      </c>
+      <c r="F47" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="48">
@@ -1254,16 +1397,19 @@
         <v>43940</v>
       </c>
       <c r="B48" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C48" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D48" t="n">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E48" t="n">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="F48" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="49">
@@ -1271,16 +1417,19 @@
         <v>43947</v>
       </c>
       <c r="B49" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C49" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D49" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E49" t="n">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="F49" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="50">
@@ -1288,16 +1437,19 @@
         <v>43954</v>
       </c>
       <c r="B50" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D50" t="n">
+        <v>85</v>
+      </c>
+      <c r="E50" t="n">
         <v>99</v>
       </c>
-      <c r="E50" t="n">
-        <v>100</v>
+      <c r="F50" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="51">
@@ -1305,16 +1457,19 @@
         <v>43961</v>
       </c>
       <c r="B51" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C51" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D51" t="n">
+        <v>83</v>
+      </c>
+      <c r="E51" t="n">
         <v>94</v>
       </c>
-      <c r="E51" t="n">
-        <v>92</v>
+      <c r="F51" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="52">
@@ -1322,16 +1477,19 @@
         <v>43968</v>
       </c>
       <c r="B52" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C52" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D52" t="n">
+        <v>86</v>
+      </c>
+      <c r="E52" t="n">
         <v>100</v>
       </c>
-      <c r="E52" t="n">
-        <v>95</v>
+      <c r="F52" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="53">
@@ -1339,16 +1497,19 @@
         <v>43975</v>
       </c>
       <c r="B53" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C53" t="n">
         <v>85</v>
       </c>
       <c r="D53" t="n">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E53" t="n">
-        <v>91</v>
+        <v>94</v>
+      </c>
+      <c r="F53" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="54">
@@ -1356,15 +1517,18 @@
         <v>43982</v>
       </c>
       <c r="B54" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C54" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D54" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E54" t="n">
+        <v>76</v>
+      </c>
+      <c r="F54" t="n">
         <v>79</v>
       </c>
     </row>
